--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -875,7 +875,7 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
-    <t>planned</t>
+    <t>finished</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -3300,13 +3300,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -3384,7 +3384,7 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>145</v>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2103,17 +2103,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2122,26 +2122,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2103,17 +2103,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2122,26 +2122,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -586,373 +586,195 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Encounter.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding</t>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>IdConsultaAPS</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.status</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.period</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status.</t>
-  </si>
-  <si>
-    <t>Encounter.class</t>
-  </si>
-  <si>
     <t>Classification of patient encounter</t>
   </si>
   <si>
@@ -1086,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PatientLE)
 </t>
   </si>
   <si>
@@ -2094,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3757,13 +3579,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
@@ -3885,19 +3707,23 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3909,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3945,7 +3771,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3957,59 +3783,59 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4023,7 +3849,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4047,51 +3873,51 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4099,13 +3925,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
@@ -4114,20 +3940,16 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4175,13 +3997,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -4193,21 +4015,21 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4227,18 +4049,20 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4287,7 +4111,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4299,59 +4123,59 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4362,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4377,63 +4201,63 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4441,35 +4265,33 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4517,13 +4339,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -4535,21 +4357,21 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4569,20 +4391,18 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4631,7 +4451,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4643,61 +4463,61 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4706,7 +4526,7 @@
         <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>78</v>
@@ -4745,72 +4565,74 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4859,39 +4681,39 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4899,7 +4721,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
@@ -4911,23 +4733,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4951,13 +4769,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4975,10 +4793,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>85</v>
@@ -4993,21 +4811,21 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5015,7 +4833,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -5027,23 +4845,19 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5091,10 +4905,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>85</v>
@@ -5109,21 +4923,21 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5131,7 +4945,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -5146,7 +4960,7 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>244</v>
@@ -5154,12 +4968,8 @@
       <c r="M27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5171,7 +4981,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -5183,13 +4993,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5207,10 +5017,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -5225,21 +5035,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5247,32 +5057,30 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5285,7 +5093,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5321,13 +5129,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5339,21 +5147,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5373,16 +5181,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5433,7 +5241,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5445,38 +5253,38 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5485,19 +5293,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5547,53 +5355,53 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>86</v>
@@ -5602,18 +5410,20 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5622,7 +5432,7 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>78</v>
@@ -5637,13 +5447,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5661,39 +5471,39 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5701,10 +5511,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5716,17 +5526,15 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5751,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5583,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5804,10 +5612,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5815,7 +5623,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>85</v>
@@ -5830,13 +5638,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5887,10 +5695,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>85</v>
@@ -5899,7 +5707,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5916,14 +5724,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5939,19 +5747,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5977,13 +5785,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -6001,7 +5809,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6013,63 +5821,59 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6093,13 +5897,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6117,39 +5921,39 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6157,7 +5961,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>85</v>
@@ -6172,13 +5976,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6205,13 +6009,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6229,10 +6033,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>85</v>
@@ -6247,25 +6051,25 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6275,24 +6079,26 @@
         <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6341,10 +6147,10 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
@@ -6356,24 +6162,24 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6381,10 +6187,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6396,13 +6202,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6429,13 +6235,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6453,13 +6259,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6468,28 +6274,28 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6508,13 +6314,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6565,7 +6371,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6580,10 +6386,10 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6594,10 +6400,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6608,7 +6414,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6617,16 +6423,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6677,50 +6483,50 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6732,17 +6538,15 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6791,19 +6595,19 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6820,14 +6624,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6840,26 +6644,24 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6907,7 +6709,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6925,7 +6727,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6936,42 +6738,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6995,13 +6801,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7019,25 +6825,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -7059,10 +6865,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7071,10 +6877,10 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>320</v>
@@ -7082,7 +6888,9 @@
       <c r="M44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7107,13 +6915,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7134,10 +6942,10 @@
         <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7146,24 +6954,24 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7174,7 +6982,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7183,20 +6991,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7221,37 +7027,37 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7260,13 +7066,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>331</v>
@@ -7300,13 +7106,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7333,13 +7139,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7372,24 +7178,24 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7397,28 +7203,28 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7445,37 +7251,37 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7484,28 +7290,28 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7521,19 +7327,19 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7583,7 +7389,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7598,24 +7404,24 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7626,7 +7432,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7635,18 +7441,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7695,13 +7503,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7710,28 +7518,28 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7747,18 +7555,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7783,13 +7593,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7807,7 +7617,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7822,28 +7632,28 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7862,15 +7672,17 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7919,7 +7731,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7934,16 +7746,16 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7962,7 +7774,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7971,16 +7783,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8031,25 +7843,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8060,21 +7872,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8086,17 +7898,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8145,19 +7955,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8174,14 +7984,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8194,26 +8004,24 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8261,7 +8069,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8279,7 +8087,7 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8290,14 +8098,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8310,24 +8118,26 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8351,13 +8161,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8375,7 +8185,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8387,35 +8197,35 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>85</v>
@@ -8427,18 +8237,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8487,10 +8299,10 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>85</v>
@@ -8502,24 +8314,24 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8539,16 +8351,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8575,13 +8387,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8599,7 +8411,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8614,24 +8426,24 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8639,28 +8451,28 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8711,13 +8523,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8726,24 +8538,24 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8754,7 +8566,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8766,16 +8578,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8825,13 +8637,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -8840,24 +8652,24 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8880,16 +8692,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>414</v>
+        <v>227</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8939,7 +8751,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8954,35 +8766,35 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8991,20 +8803,18 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>152</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9029,13 +8839,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9053,43 +8863,43 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>421</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9105,19 +8915,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>132</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>424</v>
+        <v>134</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9167,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9179,31 +8989,31 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9216,22 +9026,26 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9279,7 +9093,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>237</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9291,13 +9105,13 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>128</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9308,10 +9122,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9334,13 +9148,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>152</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>153</v>
+        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9391,7 +9205,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>154</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9403,38 +9217,38 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9446,17 +9260,15 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9505,25 +9317,25 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9534,46 +9346,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9597,13 +9405,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9621,47 +9429,47 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>85</v>
@@ -9673,20 +9481,18 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9711,13 +9517,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9735,10 +9541,10 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>85</v>
@@ -9750,24 +9556,24 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9778,7 +9584,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9793,13 +9599,17 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9823,13 +9633,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9847,13 +9657,13 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -9865,21 +9675,21 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>155</v>
+        <v>443</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9890,7 +9700,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9902,13 +9712,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9935,13 +9745,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9959,13 +9769,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9977,21 +9787,21 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10014,17 +9824,15 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10049,13 +9857,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10073,7 +9881,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10091,21 +9899,21 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10128,17 +9936,15 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10187,7 +9993,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10205,21 +10011,21 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10242,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>153</v>
+        <v>466</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10275,13 +10081,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10299,7 +10105,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>154</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10311,19 +10117,19 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" hidden="true">
@@ -10335,7 +10141,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10354,16 +10160,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>157</v>
+        <v>473</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10413,7 +10219,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>161</v>
+        <v>471</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10425,13 +10231,13 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10442,46 +10248,42 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10529,25 +10331,25 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10558,21 +10360,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10584,15 +10386,17 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>132</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10641,71 +10445,75 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>473</v>
+        <v>161</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>235</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10753,25 +10561,25 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>481</v>
+        <v>128</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10782,10 +10590,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10793,7 +10601,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>85</v>
@@ -10808,13 +10616,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>173</v>
+        <v>480</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10841,13 +10649,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10865,10 +10673,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>85</v>
@@ -10880,24 +10688,24 @@
         <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>487</v>
+        <v>337</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10920,15 +10728,17 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10953,13 +10763,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10977,7 +10787,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10995,21 +10805,21 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11020,7 +10830,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11035,17 +10845,15 @@
         <v>173</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11069,13 +10877,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11093,13 +10901,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -11111,21 +10919,21 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>502</v>
+        <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11136,7 +10944,7 @@
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11148,13 +10956,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11181,13 +10989,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11205,13 +11013,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11223,21 +11031,21 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>509</v>
+        <v>330</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11248,7 +11056,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11260,13 +11068,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11293,13 +11101,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11317,13 +11125,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11332,24 +11140,24 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11372,15 +11180,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11429,7 +11239,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11444,1266 +11254,20 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12713,7 +11277,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1925,17 +1925,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1944,26 +1944,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterInicioLE.xlsx
+++ b/docs/StructureDefinition-EncounterInicioLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -569,6 +569,13 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="FILL"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>extensible</t>
@@ -3579,13 +3586,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
@@ -3616,7 +3623,7 @@
         <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>78</v>
@@ -3631,13 +3638,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3655,7 +3662,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3679,15 +3686,15 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3713,16 +3720,16 @@
         <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3735,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3771,7 +3778,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3789,21 +3796,21 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3829,13 +3836,13 @@
         <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3849,7 +3856,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3885,7 +3892,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3903,21 +3910,21 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3940,13 +3947,13 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3997,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4015,21 +4022,21 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4052,16 +4059,16 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4111,7 +4118,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4129,21 +4136,21 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4169,13 +4176,13 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4186,7 +4193,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4204,10 +4211,10 @@
         <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4225,7 +4232,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
@@ -4240,24 +4247,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4280,16 +4287,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4339,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4368,10 +4375,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4480,10 +4487,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4594,14 +4601,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4623,10 +4630,10 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>134</v>
@@ -4681,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4710,10 +4717,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4739,10 +4746,10 @@
         <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4772,10 +4779,10 @@
         <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4793,7 +4800,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -4822,10 +4829,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4848,13 +4855,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4905,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -4934,10 +4941,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4960,13 +4967,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4993,13 +5000,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5017,7 +5024,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -5035,21 +5042,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5072,13 +5079,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5129,7 +5136,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5158,10 +5165,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5270,10 +5277,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5384,14 +5391,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5413,10 +5420,10 @@
         <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>134</v>
@@ -5471,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5500,10 +5507,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5526,13 +5533,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5559,13 +5566,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5583,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>85</v>
@@ -5612,10 +5619,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5638,13 +5645,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5695,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>85</v>
@@ -5724,10 +5731,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5753,13 +5760,13 @@
         <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5785,13 +5792,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5809,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5824,24 +5831,24 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5867,10 +5874,10 @@
         <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5897,13 +5904,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5921,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5936,7 +5943,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>155</v>
@@ -5945,15 +5952,15 @@
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5979,10 +5986,10 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6009,13 +6016,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6033,7 +6040,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6051,25 +6058,25 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6088,16 +6095,16 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6147,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6162,24 +6169,24 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6202,13 +6209,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6259,7 +6266,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6274,28 +6281,28 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6314,13 +6321,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6371,7 +6378,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6386,10 +6393,10 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6400,10 +6407,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6426,13 +6433,13 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6483,7 +6490,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6498,24 +6505,24 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6624,10 +6631,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6738,14 +6745,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6767,10 +6774,10 @@
         <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>134</v>
@@ -6825,7 +6832,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6854,10 +6861,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6883,13 +6890,13 @@
         <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6915,13 +6922,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6939,7 +6946,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6954,24 +6961,24 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6994,13 +7001,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7051,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7069,21 +7076,21 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7106,13 +7113,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7163,7 +7170,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7178,24 +7185,24 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7218,13 +7225,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7275,7 +7282,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7290,24 +7297,24 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7330,16 +7337,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7389,7 +7396,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7404,24 +7411,24 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7444,16 +7451,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7503,7 +7510,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7518,28 +7525,28 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7561,13 +7568,13 @@
         <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7596,10 +7603,10 @@
         <v>109</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7617,7 +7624,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7632,28 +7639,28 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7672,16 +7679,16 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7731,7 +7738,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7746,24 +7753,24 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7786,13 +7793,13 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7843,7 +7850,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7861,7 +7868,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7872,10 +7879,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7984,10 +7991,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8098,14 +8105,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8127,10 +8134,10 @@
         <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>134</v>
@@ -8185,7 +8192,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8214,14 +8221,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8240,16 +8247,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8299,7 +8306,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>85</v>
@@ -8314,24 +8321,24 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8357,10 +8364,10 @@
         <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8390,10 +8397,10 @@
         <v>109</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8418,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8440,10 +8447,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8466,13 +8473,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8523,7 +8530,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8541,7 +8548,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8552,10 +8559,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8578,16 +8585,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8637,7 +8644,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8655,7 +8662,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8673,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8692,16 +8699,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8751,7 +8758,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8769,7 +8776,7 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8780,10 +8787,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8892,10 +8899,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9006,14 +9013,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9035,10 +9042,10 @@
         <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>134</v>
@@ -9093,7 +9100,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9122,10 +9129,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9151,10 +9158,10 @@
         <v>143</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9205,7 +9212,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9229,15 +9236,15 @@
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9260,13 +9267,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9317,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9335,7 +9342,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9346,10 +9353,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9375,10 +9382,10 @@
         <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9408,10 +9415,10 @@
         <v>109</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9429,7 +9436,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9447,21 +9454,21 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9487,10 +9494,10 @@
         <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9517,13 +9524,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9541,7 +9548,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9565,15 +9572,15 @@
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9599,16 +9606,16 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9633,13 +9640,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9657,7 +9664,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9675,21 +9682,21 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9715,10 +9722,10 @@
         <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9748,10 +9755,10 @@
         <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9769,7 +9776,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9787,21 +9794,21 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9827,10 +9834,10 @@
         <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9860,10 +9867,10 @@
         <v>109</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -9881,7 +9888,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9899,21 +9906,21 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9936,13 +9943,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9993,7 +10000,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10011,21 +10018,21 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10051,10 +10058,10 @@
         <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10081,13 +10088,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10105,7 +10112,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10123,21 +10130,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10160,16 +10167,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10219,7 +10226,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10237,7 +10244,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10248,10 +10255,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10360,10 +10367,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10474,14 +10481,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10503,10 +10510,10 @@
         <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>134</v>
@@ -10561,7 +10568,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10590,10 +10597,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10616,13 +10623,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10673,7 +10680,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>85</v>
@@ -10688,24 +10695,24 @@
         <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10731,13 +10738,13 @@
         <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10766,10 +10773,10 @@
         <v>167</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10787,7 +10794,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10805,7 +10812,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10816,10 +10823,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10845,13 +10852,13 @@
         <v>173</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10877,13 +10884,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -10901,7 +10908,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10930,10 +10937,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10956,13 +10963,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11013,7 +11020,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11031,7 +11038,7 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11042,10 +11049,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11068,13 +11075,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11125,7 +11132,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11140,24 +11147,24 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11180,16 +11187,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11239,7 +11246,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11254,10 +11261,10 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
